--- a/Pengujian/wn_random_result.xlsx
+++ b/Pengujian/wn_random_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\Pengujian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsi\Buku\Thesis\Pengujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="wn_random_result" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>Data: West Nile</t>
   </si>
@@ -104,12 +105,24 @@
   <si>
     <t>Average Result</t>
   </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logistic Regression</t>
+  </si>
+  <si>
+    <t>Recommender</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +253,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -426,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -556,6 +584,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -601,13 +666,27 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -933,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65:J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,18 +1151,18 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1316,18 +1395,18 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -1560,18 +1639,18 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -1804,18 +1883,18 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -2048,18 +2127,18 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -2551,7 +2630,7 @@
         <v>0.91431584220773821</v>
       </c>
       <c r="C65" s="2">
-        <f t="shared" ref="C65:I65" si="11">AVERAGE(C60:C64)</f>
+        <f t="shared" ref="C65:I66" si="11">AVERAGE(C60:C64)</f>
         <v>0.88132956277266783</v>
       </c>
       <c r="D65" s="2">
@@ -2575,10 +2654,13 @@
         <v>0.43999999999999967</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J65" s="2"/>
+        <f>AVERAGE(I60:I64)</f>
+        <v>1</v>
+      </c>
+      <c r="J65" s="2">
+        <f>AVERAGE(J60:J64)</f>
+        <v>0.48351416615839343</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -2608,19 +2690,976 @@
         <f t="shared" si="12"/>
         <v>1.1469084848514083E-2</v>
       </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="H66" s="2">
+        <f t="shared" si="11"/>
+        <v>0.38133333333333302</v>
+      </c>
+      <c r="I66" s="2">
+        <f>AVERAGE(I61:I65)</f>
+        <v>1</v>
+      </c>
+      <c r="J66" s="2">
+        <f>AVERAGE(J61:J65)</f>
+        <v>0.53687129644834364</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A48:J48"/>
+  <mergeCells count="1">
     <mergeCell ref="A58:J58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="H2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.91945037666735741</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.89813262837791075</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.94953355449581811</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.73333333333333317</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.21672851470864202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.92095238095238097</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.92380952380952297</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.95142857142857096</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.22488080017828599</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.91243298897826164</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.8696924430853088</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.94441433830159149</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.35383169512996143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.908167024627488</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.85912593849984698</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.93860276499089101</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.32290652564042399</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.90816092240868473</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.8866419900971213</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.9480823405499692</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.46666666666666634</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.48491565109786955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.90797111937843999</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.88160859699842098</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.95017753001385996</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.52333083595289398</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.91799692013155154</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.88125288692112735</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.94855000473763584</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.60290536736417411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.92100417100949905</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.88935833779426998</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.95121576382978001</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.65098937318194605</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.91353800285283648</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.87092786538187128</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.9471168120448652</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.75918960249132017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.90957740358500805</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.87645410103204702</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.94612674271229402</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.75912069238528701</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.91431584220773821</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.88132956277266783</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.94753941002597608</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.43999999999999967</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.48351416615839343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5">
+        <f>AVERAGE(B3:B7)</f>
+        <v>0.91353441991056317</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:E8" si="0">AVERAGE(C3:C7)</f>
+        <v>0.88607129962682163</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.94751027459507919</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666645</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4.0483820688459633E-3</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1.0527949850047062E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1.7457004169047293E-3</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.38133333333333302</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.53687129644834364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5">
+        <f>_xlfn.STDEV.P(B3:B7)</f>
+        <v>6.1031229814610451E-3</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" ref="C9:D9" si="1">_xlfn.STDEV.P(C3:C7)</f>
+        <v>2.1323399795539325E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>4.846768817103584E-3</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.91906420623401697</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.923871380192134</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.95143669223857796</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.2183834568828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.91576361195967004</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.87054114173844699</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.94669576785565801</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.32036234986393902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.90956082693767104</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.90164442422404201</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.95271439705447603</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.45921767969409799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.91147238713965195</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.88409526671002003</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.94835974396788203</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.52059972318663805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.91300658453960004</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.87320603085224402</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.94879225114130605</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.764571921624284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5">
+        <f>AVERAGE(B11:B15)</f>
+        <v>0.91377352336212192</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" ref="C16:E16" si="2">AVERAGE(C11:C15)</f>
+        <v>0.89067164874337723</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.94959977045157995</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.46666666666666645</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5">
+        <f>_xlfn.STDEV.P(B11:B15)</f>
+        <v>3.3341269356006978E-3</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" ref="C17:D17" si="3">_xlfn.STDEV.P(C11:C15)</f>
+        <v>1.9880432043906535E-2</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="3"/>
+        <v>2.1770698069136299E-3</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.90962747943879996</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.91155919552145903</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.94954817195383201</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.22466490628225599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.91196272672201795</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.84385777023342501</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.94194037441730105</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.38425008210565798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.902257006433415</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.85941776119192803</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.94033832700485898</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.47474994428544598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.92028259527440304</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.87458119296108705</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.95050096655876704</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.67880303145819698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.91604803645546096</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.88502427461565902</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.94955379378117499</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.76393010462606803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5">
+        <f>AVERAGE(B19:B23)</f>
+        <v>0.9120355688648194</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" ref="C24:E24" si="4">AVERAGE(C19:C23)</f>
+        <v>0.87488803890471156</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="4"/>
+        <v>0.94637632674318684</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="4"/>
+        <v>0.46666666666666645</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5">
+        <f>_xlfn.STDEV.P(B19:B23)</f>
+        <v>6.0915978963268242E-3</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" ref="C25:D25" si="5">_xlfn.STDEV.P(C19:C23)</f>
+        <v>2.3020939263000986E-2</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="5"/>
+        <v>4.3198302351745771E-3</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.91331398161586796</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.84095773723132194</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.94191270993157705</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.19630473221826</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.91434140067963898</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.88914379874719096</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.95003572049468699</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.37968258832222901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.90479467973058203</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.90638805383746102</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.94668554970699603</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.53204173313315195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.91790098826280897</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.89076311576110301</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.94597991458217401</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.55772027775171296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.91624218955336301</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.86768414987729403</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.94650729311717297</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.64944659320164999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="5">
+        <f>AVERAGE(B27:B31)</f>
+        <v>0.91331864796845219</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" ref="C32:E32" si="6">AVERAGE(C27:C31)</f>
+        <v>0.87898737109087421</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="6"/>
+        <v>0.94622423756652141</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="6"/>
+        <v>0.46666666666666645</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="5">
+        <f>_xlfn.STDEV.P(B27:B31)</f>
+        <v>4.5442054833665767E-3</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" ref="C33:D33" si="7">_xlfn.STDEV.P(C27:C31)</f>
+        <v>2.2656718480619609E-2</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="7"/>
+        <v>2.5872493391619939E-3</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.93429383509572095</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.89046530513511601</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.95334162692653202</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.21940867798160801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.911930180902493</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.88579356620763405</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.94479706374941996</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.361956929717557</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.91622097956331605</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.88415111423375503</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.95049589896965503</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.43523806242375801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.91932445897139503</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.86746652137915703</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.94669363474957602</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.60641443124237604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.91281580013075003</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.85227077053211198</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.94460397947237895</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.85887870061931204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="5">
+        <f>AVERAGE(B35:B39)</f>
+        <v>0.91891705093273512</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" ref="C40:E40" si="8">AVERAGE(C35:C39)</f>
+        <v>0.87602945549755484</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="shared" si="8"/>
+        <v>0.94798644077351235</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="5">
+        <f>_xlfn.STDEV.P(B35:B39)</f>
+        <v>8.1230768493500902E-3</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" ref="C41:D41" si="9">_xlfn.STDEV.P(C35:C39)</f>
+        <v>1.4195012542068695E-2</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="9"/>
+        <v>3.4135001638400646E-3</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:F34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>